--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/35_Gümüşhane_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/35_Gümüşhane_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5D1A60D-143D-4C20-87C7-422F8DE31AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3990D78E-08B4-44BC-BB79-0AE3EAA23AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{B95BCC16-BF0A-49A4-ABAF-095CBB4A45CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{082BDA6A-4FDB-4E84-B74C-3AF27F227C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{FB01C790-6B24-438F-AEE1-D8207A55E923}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DC306F66-48EA-4686-B0AD-AE5C2274AB89}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{9A81CF55-CB44-47C4-8C45-212CA2F2DBF3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{66E9237E-63DB-40B5-8932-20FDBE943118}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7AC8F95D-E9A9-44F6-A703-852D9A149D97}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{77B6C4A5-DA7C-4E0A-9EE8-A6BEEF47A789}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1DC505CD-21B4-4A34-8B18-045CBFB97794}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BFC246EC-951D-4057-8F1B-29533563D3D4}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{973226FB-876C-4373-9472-46E65A3FE0C8}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{9FC3DD6B-AE3A-4DD7-A2C1-277BF8D92637}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{82A7F54C-BD03-4A8F-975B-B732F37F4D20}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B03932EC-B7C1-4165-B736-2570F423779F}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{94B68725-BE56-4A5C-9E74-BDC8A011F3DE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3CEC218F-EB2F-4FCA-8CF7-9C16A905BCB1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358B4A21-2919-4787-9855-D2521F74161F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E84EDB4-8AC1-43BB-AB1B-C011BF320D59}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2560,18 +2560,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26BD9D41-271F-4BDA-B712-5442E22209A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C19D5AB1-C7CE-410C-A930-7FE079F5A727}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6DADC0A7-38B7-4844-8CE1-ABC0E732CA86}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{856479FD-1BFB-41BF-B80B-A77F4D38F7C0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5D97F485-9EEE-4B0A-A7D9-F35F90AF58B3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63B20CAA-A0DA-4DCB-8E7A-E27591C68E81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{120CC825-F890-44DA-959E-C74A43C1594B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6E435CF-21FD-46F6-AE2F-2D4615C0B288}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11633E63-B185-4FA2-9A37-8422B994E004}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92548631-BB3E-4CC2-8E47-D14BAD8F4360}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{450E3B44-799D-4A1F-A18C-48CF6FE793FD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C96705D-BA4B-4E8D-AB51-1881F2DF1074}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6B7C7A7-FF59-46FA-8133-F3651F1DD55D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{788EF98C-0011-47FD-92B2-2E9212A33EE3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2263400E-7814-41AA-A007-81537BB148FD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16DCEF68-CB52-4788-AD89-5E8D6DE53626}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B85FD0A5-EB28-42AB-AAAE-59B05B7F4C7C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C05B0779-268E-40BF-9EBA-B416AC24042B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65609ECC-1400-4B41-A742-09AD09480E4D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3E922E80-C439-4764-A62F-75CAA0A83EBD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F785D21-8515-4400-A562-9506F6DA92FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8C0B5ED-E874-4098-BEC7-0B44A6F4D08D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CBC0866-2443-460B-90DB-D3A7724CBD4D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00BCF1A2-739D-4908-880E-E351177C6F6E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2584,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC50A5E5-B66B-4A03-964B-0BEDABA050ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B2EBBF-E3C9-4D81-9EE7-26E0BFD14569}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3801,18 +3801,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81B59C0F-3245-459B-B00E-120B517F8FC1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9E4282E-52B0-4894-B973-81A3E4071CBD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6588A40B-70AE-4C8C-AE7E-C162FD0D9BE4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA147AC4-E8AA-47F5-A992-86CB77ACC7DA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3B4B0D1E-860E-4F85-B704-571EF8C2E5D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EB6190B5-258E-4DC1-BDCA-F6962DC9A972}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90EE4683-A08D-4892-BCB7-E5D0FE1CBBC4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{91B88F71-3F9A-4338-9F82-2CD713B6D9F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AD86E26-955D-4155-B3EF-5AD4DB95A87F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC38959D-BCA0-425A-A273-F1324B4E01F4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A686C198-FC2A-4E7F-B6F6-81D18EF385EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8CE7C05B-A5EA-4731-AD29-9142BBC103AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D15668DF-A4B7-4925-8B01-BA5C06906E10}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A20520C-32BE-4F43-9587-C269C86F139A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{73592AC3-BA2F-4099-9443-DF5914BD405D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A518A10B-C9AB-439D-949F-52DEA878CEFB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CA1288D8-B361-4D60-B056-F05D5FCC51F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5B398F3-80E8-43C6-B523-5BA48F7569F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D0B70F1A-7B3A-4163-8AD0-FE422F85C7A6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71585A0C-F96C-4175-B0C6-9D71BD101F14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D640EF8A-CC40-48EE-9BDD-E97FA4D75DC8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8912CAB8-943C-4621-84CE-802FD8635081}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{665BB284-1462-47C4-9259-BAE106BDF835}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E600F8F6-A9DE-4360-AA1A-A17833818B2F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3825,7 +3825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A16CF5-F27C-4946-86DA-FDBD39030609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C0CAF-E5EF-4736-8B33-47708662D903}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5038,18 +5038,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF992A75-BD3E-4B80-87AD-DBC4546C3BB6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80A3AF66-F5E8-436D-916A-C03D345869C5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{07B76BF7-EBF2-4BDF-92E1-972E1445BC77}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{767D402A-FE8B-4D5D-AE41-1F871A47E93B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1AA19E5E-1D62-427A-A9BD-384B43C7DB2B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50F86723-DBDC-4ABC-A866-FFB9270C72C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBAD9DCE-69D5-4D71-B101-108EEFE0EA92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B575FC4-98D8-4619-8366-5656250E7565}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAE4F4C2-0363-40D2-8F26-0C502FDE06DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56DB8B17-117C-4484-81A5-90377450A769}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAD37190-4D0D-4EAF-A44A-A4FCCF6D04F6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AF3EB9F-3B92-40F1-8D77-2AE0185A6181}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D1EF815-A32B-4BFA-81A1-0ADA1455E867}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05E2888B-FE1A-4692-A4BD-57C88742C60F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D89AAD71-1A47-47F1-B005-179B36654CBC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5184948-24AC-46A5-9240-3D0342CE2D75}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4C157E31-C160-469C-AE78-E3B44AB35CF7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E7495EE8-85FA-49A7-86BD-1023535B87B7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19AE0555-1368-47B0-85D6-005448F7EC12}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ECFF3422-85C9-4A21-87D2-746E4DA1FFBE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29337665-1FEB-473E-ABBE-3025FA28327C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{977B41C1-2FD3-49CA-8B1B-0B323452ADFF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5165896E-75EC-409F-9D42-C8C5843A911C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0F81F72-423B-4B53-A3EB-E480B6C4988D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5062,7 +5062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE9A4D2-A834-477F-BCCC-8F56FFBF9DE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA01078-C9B4-46CE-9F5B-551DB596E178}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6252,18 +6252,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EDFC031-72ED-4E95-8E60-C5727B890623}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF88A7D2-003D-4F7C-BF0B-FFE91856159F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35D92255-0127-488D-A198-E9F72A68BE14}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C2256A3-6589-4F0B-826B-921A19BAD3C6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6F67F7EF-D50B-4ED1-8670-41C8E76EEB10}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6405A71F-140E-49F7-9E03-77890D5DCEDD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A85162BE-A93B-4849-8C35-3F24D02F05E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB320E74-87A0-41A4-A8B3-80B32B574C66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0523C8DB-1571-4AA1-AAB2-AFD953E81B9E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B0E5826-DB79-409E-9B1E-A8E2B1F59012}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A134478C-6E6D-4A8F-87DB-2E3CB5959A87}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{780CCBA5-0D27-4DA8-8417-3EBD94DDA2E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{991A6162-9390-4619-92F1-775EFB5438B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2321BF13-8F43-43EA-9EBD-CDA23475A5D8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{36676ACB-4B2F-41B2-B7D3-4C9C14EE187F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5822DE07-39E1-45D4-BE98-61247A3E0667}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8CFA85F8-F130-4930-83DE-CA758D8A1B7F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{60385423-D666-4568-A8A4-AC4C2CA103F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{183F62D9-8492-4F67-8A29-16F96A95BB41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FEE77F3-3CAD-4339-A448-76BC877CB41F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5DE8B59-4BDE-468D-BA50-667630F1A823}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30842568-A4BF-4216-8BD5-7277A397D573}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD265543-013B-43AE-8923-7341A8070A12}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2E8CE2C-E9A1-407B-A07F-06BE6DBBE2E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6276,7 +6276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A7E5A-7EEF-4F4C-906C-FF90F5A7C12F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982F9E24-2059-4BC0-BA14-093175CBF236}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7505,18 +7505,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55CD2A10-24A4-4885-ABF4-565A0525B9CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA57D6F8-0630-4FE7-9BCE-7BA3888ED9D6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ACC1298C-74C9-4314-8D05-3634C1F1AF3D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E383F293-230F-468E-B5C5-597607159C97}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B694F257-67E8-4440-9192-493BC1035515}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3CFF48CF-D8C3-4C30-B5D9-381C5A668D18}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80D6C3C2-674F-4D6B-867C-9163A2A5B2C3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C32B3FDC-E6C6-49A0-AD9A-63F0DBAE06B8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E99964D6-E33B-40D8-9CC8-16A4EB1FFD48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{581BEF2E-4A8A-4B69-86DD-E65EEF2562E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1ED3E98-38D0-41BD-8EDD-4051CB389C10}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B686D75-241C-4F47-BD2B-4789CB14CA37}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C9386C6-A64D-4109-B7EE-3530BD7E730F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C4F5C3F-3B4C-4BF3-9CFE-AD9D922DD349}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E646E0CE-6990-45E7-8E61-E3A8B5A6006D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B0BCDA1-E789-479C-91B6-A405F5457437}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9901996D-0050-49C6-A838-008B6ABD5601}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E818AFE0-9FFA-4FF3-AA4B-541049B570E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A102A02-EE63-4C27-A0E9-D8D76550BAD8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2C1975F3-C07A-4F47-892A-EB7B4CA27857}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C694784-45F8-4F28-9EB3-DFE3491F50E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70621CF9-5AA8-4014-8476-A9E8FE4D18CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A36CCDD2-D95A-45EB-AF45-FB921289E522}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1368F041-32B3-4592-A233-5A91A7DB3791}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7529,7 +7529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB6EF5-79BC-4E63-AFCA-B0F6DBA3E507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FC0B61-BAAA-4D09-8746-08B55717FE25}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8758,18 +8758,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38B18994-5B9B-4067-BB53-8C12B42D1CFC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{079D2E3B-55DC-42FD-8C1A-345711E48C9C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CAE9C48E-F776-49B4-AFFE-C23D0CB454F5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D13039C-637D-4445-8F13-738012D7C4EB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FD4B7675-2CC4-4293-A296-B71B49E25480}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3E215F4C-27F2-44A5-AAB2-ABCA0A35AA3F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7F1E76D-506A-4246-9DB8-86B025DE4036}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{54651CAC-A7BC-4AB5-9F1E-8C974481E9F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C99DD327-3BB5-4784-927E-6B3E8DB617E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D057555-D2CC-47AF-BEB7-428AD480C2D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C0E5DDA-C571-43C8-9539-93A37FDD02BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07B8951C-D770-42C2-AEE2-344B34018F4E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35B40FD9-8CF9-46AF-9F16-780B33DD54E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84B7286C-E8DC-49CB-BD18-8A46FCFE6DD4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A090006-4B9C-4C5D-A48B-C66041731E74}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{23ED5AFF-60D3-4792-887E-773B8CE34693}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7F32425C-5A85-4341-9F62-F122DCA8DA1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F68D19A8-63C5-43F0-81DF-F639C0750A6C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C614802C-0467-4B89-B2DB-24B7363F4E85}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2ACC37A-93BC-4486-A14A-3531B0D787BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36F69BAB-F475-4CD3-B4F8-D231AA3C92D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CFCCA8CB-2A2D-4EA2-9356-B90F83EAABD5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D132A75E-B668-4172-A996-4DDFFF53DF78}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EAB8CC9B-8192-4C4C-AD36-F5390446D68C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8782,7 +8782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24D40BD-5442-49D5-8DC5-3C5D2B978554}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E50839-E1AF-4618-B278-19E71F3A97CA}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10011,18 +10011,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8523D392-60FF-4EEB-BAEB-E35CE06155CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D67CE21B-E3ED-4D25-89A9-0D467803EA99}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B337B63B-AFD1-468F-B45B-697F2F05A3F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFA00174-9E73-4515-8E07-A1A4E5D29FBE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5E6EBCDE-FB1A-47BD-98DA-465E703ABD40}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0535EB63-25DA-4655-94E9-849F77918F09}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{888E17D8-1BE2-4859-AC61-525059D52FD5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FF6ACDE2-01C9-4DFB-AC1F-3D891427B975}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04D8F07F-122A-4520-9ED6-3A40E3CDE90C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10599A09-681E-463E-9478-AE6508942D0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAE2D4ED-22FB-42E4-AF7F-9B7749331102}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6011330-4984-4F7D-A2AF-EB0F5703E9DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B587991-C545-4AC0-8E47-87F33887BE98}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01E73B70-3F36-4735-A019-EE09427CCE2A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{98A3410B-7EAC-4E2E-881A-0FC04DCA7220}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3B5D034-4724-447F-93AE-C098CB100282}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D750D08A-74CF-4045-A5CE-960EBFB09AD5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0121041-EC2E-4EE4-AA8E-86B90D4488D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF62EF05-CE9D-416D-9261-DDA1FFB5E6EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8B09BD6A-7E92-4290-9E14-7811F0EB1D10}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CC8D508-7745-47F8-BEF4-D4D85FEADA7B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C46FBA0-AFEC-47CA-87E9-065E62CE13DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5386F540-45F2-4447-AD58-74B98631CF97}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75173D2F-50D4-48EB-9C49-3722CF192F52}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10035,7 +10035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208CC80E-B170-44AD-A6E2-71B9640B7558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31B6931-5166-4589-B86D-43111316FE9B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11262,18 +11262,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0507F1FC-8586-48B1-81EC-4FB979062061}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2AABA3D1-1AE2-4D4C-8EE3-BDD9BDDB2DD6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4E420ED5-0420-44FD-BF9A-FAF5C4074DF0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69088109-3A6D-47B5-866E-B1A9218111EF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CFAF722D-FD8E-412C-A740-F07F35EE7BCF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2E83D14-5293-45D5-849D-233714AC9302}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6104F8AA-128E-4851-9CE2-B947A84F208D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{37425EA2-C8A7-4BFF-B4B5-ED9317C85D92}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E93F548-9D92-4C57-B150-FFFD6CC028A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D39D3868-E211-4227-AC29-84F5833F2078}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13AEE9D5-F356-403D-A5A8-9A5DA364C811}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3C6CD19-CB56-4BB6-B736-1FD65C308196}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7BE14F2-2223-45C2-B3D5-2953A6C7BE4F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8A5FEE9-D278-476F-B57B-E407F4CADD86}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A8881384-FE45-4E61-BBCF-5F7FDA60E6CD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2FE3428D-5DC4-4322-AB1C-CBD11931EC47}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{618C3FE7-6ED2-4128-94AA-06C7492C48BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{581120DE-FA85-4E84-99B3-93C17B349AB9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAAB9B91-CA79-4047-BD74-50695AEC930B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E0F954E-9397-4705-997F-B2ADE14428DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4BD9D34-2A5A-4086-B3FF-295E70D88A95}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6AF0713D-9702-4EC3-B407-7EC2BE10E1D2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05CF3187-A1E6-4C06-983F-A76CA795EC51}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6EF26372-B1D7-48F8-81C4-F37F49311EE5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11286,7 +11286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D2AFBD-AE3E-494B-AC31-CD0D437DD3AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4611AD61-3CBB-4F1B-AABF-942670398EA5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12515,18 +12515,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1DA951B0-B69B-4549-A5F0-528B5806157C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75450CC4-93BB-49C7-A2CE-197FFCF5E95D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{69BC4FD1-F46C-4436-A65F-F027C3D5EA68}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8FADEA6B-FA11-4816-AA56-99D28F4349F4}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{26E33F56-B89C-4BDB-B1BB-2CDEF4204021}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFADEF32-6652-44EA-BB17-A7347D1B4027}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13A2C5CA-BAEB-46D3-83D1-355E866FF466}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86DA6F5E-E79D-4311-A417-D0F4405567EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{396807BA-37E0-4CD8-80EF-8387C58DF49C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87BF70A2-10A3-4927-B259-9A183D2E9DF6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7942324-D822-479E-8632-8F6C1EDBC1D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DD599CE-2077-4F0C-821C-24858B5508B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{549CC6AB-735A-4F80-A4CE-E2214728CF2A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C556C9E0-8888-48A1-9570-5B420CA89961}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BB29DE36-BFFC-4633-9DDB-CA7DC7D0AA22}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D093CB08-5695-4EBF-83C3-0155211AF05F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2DDE87F2-CBE6-454B-AC10-077231316C95}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{922614F4-8F2F-4A89-B97B-F65A88D9DD6F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA300894-F629-43D0-B202-8E58F5C2DD65}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9246BE3-8224-43C5-8045-2016C7F537DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DCF94D84-247D-44AA-A114-3D5F625C2444}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2CAD917C-A992-4EC2-BFD1-F45150E4B6D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6FE3059F-48C0-44B0-A51A-1B2341860F7B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAB20B7F-0441-436F-8D42-96F3A6CB7CF6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12539,7 +12539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C494B095-91D4-432C-81D7-5170F7E9703D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECD1CCD-089C-4107-88D5-169B072756F0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13764,18 +13764,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F823EA1B-714E-4B5E-8E3D-B82BD6B54F79}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1A3C2AD-BEB0-4B3F-8853-619ED3FFC9BE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B7AB48F-89A3-4A67-801C-A6F744AC2776}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0430BD65-E959-420A-8063-DFA4FA571091}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F4102619-3192-411F-9422-C0F768F07BD8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9697AE3E-74A3-46D7-BAB8-0F0A843FD58D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE59F287-1B5B-4690-A43D-F6C2E537F63F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{444A9AF9-FF69-4647-8A06-062542EB34B8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8EDB20AA-B7A2-433D-A9BD-CA9D9AEFDD61}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3BA584C8-E638-4394-859F-FC93535CEEA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF914C07-E0EA-4AD3-9B4A-A0C07AE9CABB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C4DBE08-3235-433E-828A-41665A832BE1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E04906B4-EBF9-49D9-8999-918A23E28577}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1E5779D-8CBF-4345-A76A-CED8A0F36454}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5017B338-D06A-4D2D-817F-3835ED6E3906}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7706774D-61ED-4AD0-AE99-0DC03053D72A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A8322F5F-2E5B-42F1-8F5A-A7F166BD8500}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{514659EF-659F-4ABF-9DFE-7DB3EED126E6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7C4C4B2-0BAA-4E04-B6ED-08756AAD826F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5CD68AA-D879-4EF5-AAC3-03BB99D865F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E82E5D3-9C1D-43F2-8D4A-8C44F6262577}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A35CE075-1773-4201-AA91-9966D4F9D17B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8F236FA-F3DD-46DB-80B2-026100BCB97C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49D64003-06E3-4E41-8B8E-0FA6BE3F0E6E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13788,7 +13788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42607224-29BD-4BA2-A17E-9A79D5E4CADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC72BE1E-13BF-46D9-80A8-2CAC502EC2B0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15013,18 +15013,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A0AFA31-5B53-4888-B1AB-6E8266157F5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57A06E97-9CB3-4A54-BF0A-02EFCBBD8D2C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2562F34F-FE9A-4E68-81C5-85CB38B20DD8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{861EF288-DD8F-499A-9234-6BF4DEA9E3A0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C1891AD1-4301-4368-937E-83557DEB3444}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C1F0581-4EB3-4835-A3A0-C52F0F4ACF7E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CDC252D-E13E-41FC-92A6-44A7A657E165}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4EA79DAC-AB77-4B7B-AE41-8117C7CB6E87}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96E30DD5-BAC0-4502-A759-FB1B0838455D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C2674C0-CD2A-4990-BC1B-F848A80857DE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BB1B2F8-0212-4B54-AFB5-6724A0E89A18}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD85B6F0-EC25-4FC4-8B67-4D174AA1DF2F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39900874-90E0-4ED2-8119-E2305C78E3C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{764BC6B0-9BE4-4042-8877-AB5C4205D82C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ADDBF505-2CFB-4A31-A18E-E154FC24D086}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{21524E5D-2594-436D-9687-A30AA35CF63F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{88A8AF75-700C-4953-9224-3133A72F801F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD71D371-CC7E-4E2F-9E71-ABD16D8005BF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{070C78CF-0310-4C81-B958-CFCA61398476}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{763FB7B8-95EE-4650-9800-2418AD4EA8C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C353D9EB-37AE-48A3-A31F-6485D7CEB8A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D12F677E-492E-4DBC-AAD4-E7F5182F9A81}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B292F43-302D-4AB1-984E-0F4E12E891FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3DE70A50-615E-43AF-8330-80BF8088AB21}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15037,7 +15037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68CEC5A-E878-469C-9F65-91C501AA4120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3F4BD2-E0A3-4F16-AA4E-EFD9BCD52508}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16262,18 +16262,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA10B042-EC48-4FD0-BE8B-233FF254390D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06ACAF2C-4A0F-409D-8DF4-F844FCF427BB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78235921-AD9A-4D32-BEAF-AEEBDA08C64C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F21DAA26-B448-465B-8340-839F75D6A5FE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AEC74A6C-1254-4AA2-B7E8-67A034DD97E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97392A80-C309-4F67-9196-5EC85ED5D826}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA4BEBF7-E941-4D9C-8A54-35CDC3024D9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{70984CB3-A127-4616-992C-130CB081D3A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D11FFD23-8D95-4933-A676-453EC7C093D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{052F3EEB-60B5-41D6-90DE-6B00AC90812C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2142AE9E-76D2-48D8-A4AD-1B7392EA53EE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1AEBDE08-B762-4C4A-8195-5A9FB97BDD7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9742B8F-5761-4DF6-925F-44F3EC2D6655}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC42DBB4-0A1E-40AC-BF36-48A4BE15DACC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1502EDD7-4B5B-4CBD-9542-381C02DA834F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{34F9E776-3B0B-4FCA-BCCB-103F6E12797C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5A183AAA-254E-4EC6-B9FE-855536ED8461}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D833F971-10DE-4DEB-92A3-5723A0D1DC55}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D96E8042-009A-45B0-BDB2-4FC33B05C28C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{441A2ADC-B6A3-4337-BFB1-52745739100D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{213E4B75-7090-47FF-A63F-B29E626D9F36}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E4019B6-9B8D-4B2F-853C-712DA624760C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E37CDED-2D5F-49BD-B46D-626F86633D04}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1372434-90B7-4083-BDA1-F480B5C64539}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
